--- a/Day 1- Mastering Formulas + Pivot Tables in Excel/1-Lookup & Decision Formulas/1-2 Decision Functions.xlsx
+++ b/Day 1- Mastering Formulas + Pivot Tables in Excel/1-Lookup & Decision Formulas/1-2 Decision Functions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpo64\Desktop\Courses\Elementsix\Day 1- Mastering Formulas + Pivot Tables in Excel\1-Lookup &amp; Decision Formulas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpo64\Documents\GitHub\element-six\Day 1- Mastering Formulas + Pivot Tables in Excel\1-Lookup &amp; Decision Formulas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC6F0E3-E4B5-4809-920A-8E9252662752}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF963DF-3AC7-4CC0-9BC1-DA082E4B87AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="507" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="507" windowWidth="25786" windowHeight="13986" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IF" sheetId="3" r:id="rId1"/>
@@ -2888,7 +2888,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="147" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="147" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -3835,7 +3835,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="87" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="87" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" outlineLevelRow="1" x14ac:dyDescent="0.5"/>
   <cols>
